--- a/Popeyes.suite/Resources/OracleApp.xlsx
+++ b/Popeyes.suite/Resources/OracleApp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -64,25 +64,19 @@
     <t xml:space="preserve">Spicy Cheese Cmb</t>
   </si>
   <si>
-    <t xml:space="preserve">Shrmp Pop 1/4LB, Cajun Fries Rg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/4 lb Popcorn Shrimp Combo, 1/4 lb Popcorn Shrimp, Rg Cajun Fries</t>
+    <t xml:space="preserve">Spicy Cheese Cmb, Spicy Cheese Sandwich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spicy Cheese Sandwich Combo, Spicy Cheese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spicy Cheese, Cajun Rice Rg</t>
   </si>
   <si>
     <t xml:space="preserve">sideitem_delivery</t>
   </si>
   <si>
     <t xml:space="preserve">sideitem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boneless 6P Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bnls 6P Classic, Fried Pickles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Pc. Boneless Wings Combo, 6P Classic Boneless, Fried Pickle</t>
   </si>
   <si>
     <t xml:space="preserve">popcornshrimp_tenders_delivery</t>
@@ -315,7 +309,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -324,7 +318,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="48.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="39.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16377" style="1" width="12.31"/>
@@ -385,7 +379,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -393,10 +387,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -404,28 +398,17 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -439,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -448,10 +431,19 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -459,16 +451,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -476,16 +468,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
